--- a/3.results/model_selection/labbe_2_covariates_blocks.xlsx
+++ b/3.results/model_selection/labbe_2_covariates_blocks.xlsx
@@ -660,13 +660,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.127</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>354.7</v>
+        <v>467.8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>
@@ -678,10 +678,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -697,13 +697,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.052</v>
+        <v>1.031</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>457.1</v>
+        <v>713</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.51</v>
@@ -785,7 +785,7 @@
         <v>231.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.5</v>
@@ -867,7 +867,7 @@
         <v>618.6</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.51</v>
@@ -879,10 +879,10 @@
         <v>440</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>0.97</v>
@@ -912,7 +912,7 @@
         <v>481.5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0.5</v>
@@ -924,10 +924,10 @@
         <v>444</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="n">
@@ -957,7 +957,7 @@
         <v>486.3</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.5</v>
@@ -1002,7 +1002,7 @@
         <v>316.2</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.5</v>
@@ -1047,10 +1047,10 @@
         <v>353.4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>438</v>
@@ -1059,10 +1059,10 @@
         <v>438</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>-0.63</v>
@@ -1095,7 +1095,7 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>435</v>
@@ -1137,10 +1137,10 @@
         <v>523</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>441</v>
@@ -1149,10 +1149,10 @@
         <v>441</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>1.08</v>
@@ -1186,7 +1186,7 @@
         <v>354.4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0.5</v>
@@ -1235,10 +1235,10 @@
         <v>364.6</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>437</v>
@@ -1247,10 +1247,10 @@
         <v>437</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="n">
@@ -1287,7 +1287,7 @@
         <v>0.49</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>436</v>
@@ -1523,13 +1523,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.127</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>354.7</v>
+        <v>467.8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>
@@ -1541,10 +1541,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1564,13 +1564,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.156</v>
+        <v>1.054</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>219</v>
+        <v>254.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.5</v>
@@ -1582,17 +1582,17 @@
         <v>449</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1600,7 +1600,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="U3" s="1"/>
     </row>
@@ -1615,10 +1615,10 @@
         <v>100.9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>447</v>
@@ -1660,7 +1660,7 @@
         <v>236.2</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.5</v>
@@ -1717,10 +1717,10 @@
         <v>447</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>-0.55</v>
@@ -1750,7 +1750,7 @@
         <v>84.8</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.5</v>
@@ -1762,10 +1762,10 @@
         <v>448</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="n">
@@ -1848,10 +1848,10 @@
         <v>194.4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>441</v>
@@ -1897,10 +1897,10 @@
         <v>731.8</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>437</v>
@@ -1909,10 +1909,10 @@
         <v>437</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>-2.39</v>
@@ -1998,7 +1998,7 @@
         <v>0.42</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>442</v>
@@ -2100,7 +2100,7 @@
         <v>0.44</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>440</v>
@@ -2109,10 +2109,10 @@
         <v>440</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>-2.19</v>
@@ -2150,7 +2150,7 @@
         <v>380.8</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.5</v>
@@ -2162,10 +2162,10 @@
         <v>436</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>-1.66</v>
@@ -2215,10 +2215,10 @@
         <v>443</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>-0.15</v>
@@ -2313,7 +2313,7 @@
         <v>192.1</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.5</v>
@@ -2325,10 +2325,10 @@
         <v>447</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2358,10 +2358,10 @@
         <v>311.7</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>448</v>
@@ -2571,13 +2571,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.127</v>
+        <v>1.005</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>354.7</v>
+        <v>467.8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>
@@ -2589,10 +2589,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2606,16 +2606,16 @@
         <v>69</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.097</v>
+        <v>1.008</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>274.8</v>
+        <v>330.3</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>449</v>
@@ -2624,18 +2624,18 @@
         <v>449</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -2651,10 +2651,10 @@
         <v>238.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>443</v>
@@ -2729,10 +2729,10 @@
         <v>206.7</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>444</v>
@@ -2775,7 +2775,7 @@
         <v>0.47</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>450</v>
@@ -2815,10 +2815,10 @@
         <v>188.7</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>444</v>
@@ -2858,10 +2858,10 @@
         <v>209.6</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>443</v>
